--- a/Praca Inżynierska/dane/excel/moc-4stat.xlsx
+++ b/Praca Inżynierska/dane/excel/moc-4stat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Odchylenie standardowe</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>R^2</t>
+  </si>
+  <si>
+    <t>dla dmax=6,5</t>
+  </si>
+  <si>
+    <t>dla dmax=3,5</t>
   </si>
 </sst>
 </file>
@@ -1018,11 +1024,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="394795088"/>
-        <c:axId val="394795480"/>
+        <c:axId val="414407240"/>
+        <c:axId val="405181344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="394795088"/>
+        <c:axId val="414407240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1071,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394795480"/>
+        <c:crossAx val="405181344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1073,7 +1079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394795480"/>
+        <c:axId val="405181344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1130,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394795088"/>
+        <c:crossAx val="414407240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1464,11 +1470,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="424084776"/>
-        <c:axId val="424085168"/>
+        <c:axId val="520188832"/>
+        <c:axId val="520188440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="424084776"/>
+        <c:axId val="520188832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,7 +1517,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424085168"/>
+        <c:crossAx val="520188440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1519,7 +1525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="424085168"/>
+        <c:axId val="520188440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,7 +1576,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424084776"/>
+        <c:crossAx val="520188832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2793,11 +2799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="424085952"/>
-        <c:axId val="458113168"/>
+        <c:axId val="520184912"/>
+        <c:axId val="520186480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="424085952"/>
+        <c:axId val="520184912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -2912,12 +2918,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458113168"/>
+        <c:crossAx val="520186480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458113168"/>
+        <c:axId val="520186480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -3031,7 +3037,1061 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424085952"/>
+        <c:crossAx val="520184912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'moc-4stat'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RSSI po odsianiu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2037535485076821E-2"/>
+                  <c:y val="-0.35849759405074366"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'moc-4stat'!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'moc-4stat'!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-59.310344827586206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-64.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-66.620689655172413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-67.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-83.129032258064512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-76.617647058823536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-81.196078431372555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-73.41935483870968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-76.766666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-83.60526315789474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-84.407407407407405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="365753672"/>
+        <c:axId val="365754456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="365753672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Odległość [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365754456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="365754456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>RSSI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365753672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'moc-4stat'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RSSI po odsianiu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2037535485076821E-2"/>
+                  <c:y val="-0.35849759405074366"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'moc-4stat'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'moc-4stat'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-59.310344827586206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-64.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-66.620689655172413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-67.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-83.129032258064512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-76.617647058823536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="412117216"/>
+        <c:axId val="412117608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412117216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Odległość [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412117608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="412117608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>RSSI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412117216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3232,6 +4292,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4239,6 +5379,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4843,6 +7015,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>395568</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>490817</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5114,10 +7350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD44" sqref="AD44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N39" sqref="L38:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8626,6 +10862,15 @@
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" t="s">
+        <v>6</v>
+      </c>
       <c r="AE36" s="1" t="s">
         <v>10</v>
       </c>
@@ -8637,6 +10882,35 @@
       </c>
       <c r="AK36" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="M37" s="8">
+        <f>6.957*$H$7/10</f>
+        <v>1.6019084492000999</v>
+      </c>
+      <c r="N37">
+        <v>68.064999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="M39" s="8">
+        <f>7.671*$H$7/10</f>
+        <v>1.7663130248403001</v>
+      </c>
+      <c r="N39">
+        <v>68.298000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Praca Inżynierska/dane/excel/moc-4stat.xlsx
+++ b/Praca Inżynierska/dane/excel/moc-4stat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comarch\Documents\NoweRepo\nowe\Projekt_inz\Praca Inżynierska\dane\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Projekt_inz\Projekt_inz\Praca Inżynierska\dane\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="moc-4stat" sheetId="1" r:id="rId1"/>
@@ -1024,11 +1024,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="414407240"/>
-        <c:axId val="405181344"/>
+        <c:axId val="422739424"/>
+        <c:axId val="425883864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414407240"/>
+        <c:axId val="422739424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1071,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405181344"/>
+        <c:crossAx val="425883864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1079,7 +1079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="405181344"/>
+        <c:axId val="425883864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1130,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414407240"/>
+        <c:crossAx val="422739424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1470,11 +1470,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="520188832"/>
-        <c:axId val="520188440"/>
+        <c:axId val="425883080"/>
+        <c:axId val="240877240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="520188832"/>
+        <c:axId val="425883080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1517,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520188440"/>
+        <c:crossAx val="240877240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1525,7 +1525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="520188440"/>
+        <c:axId val="240877240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1576,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520188832"/>
+        <c:crossAx val="425883080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2799,11 +2799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="520184912"/>
-        <c:axId val="520186480"/>
+        <c:axId val="445552656"/>
+        <c:axId val="445553048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="520184912"/>
+        <c:axId val="445552656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -2918,12 +2918,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520186480"/>
+        <c:crossAx val="445553048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520186480"/>
+        <c:axId val="445553048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -3037,7 +3037,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520184912"/>
+        <c:crossAx val="445552656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3344,11 +3344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="365753672"/>
-        <c:axId val="365754456"/>
+        <c:axId val="445553832"/>
+        <c:axId val="445554224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="365753672"/>
+        <c:axId val="445553832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -3463,12 +3463,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365754456"/>
+        <c:crossAx val="445554224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="365754456"/>
+        <c:axId val="445554224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -3582,7 +3582,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365753672"/>
+        <c:crossAx val="445553832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3853,11 +3853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412117216"/>
-        <c:axId val="412117608"/>
+        <c:axId val="445498048"/>
+        <c:axId val="445498440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412117216"/>
+        <c:axId val="445498048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -3972,12 +3972,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412117608"/>
+        <c:crossAx val="445498440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412117608"/>
+        <c:axId val="445498440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -4091,7 +4091,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412117216"/>
+        <c:crossAx val="445498048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7352,8 +7352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N39" sqref="L38:N39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7544,24 +7544,24 @@
         <v>-58.544589322630181</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U33" si="1">-(10*$N$34*LOG10($E2)-$H$2)</f>
+        <f>-(10*$N$34*LOG10($E2)-$H$2)</f>
         <v>-58.64459265370359</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V33" si="2">-(10*$O$34*LOG10($E2)-$I$2)</f>
+        <f t="shared" ref="V3:V33" si="1">-(10*$O$34*LOG10($E2)-$I$2)</f>
         <v>-60.814215033574605</v>
       </c>
       <c r="W3" s="1">
-        <f t="shared" ref="W3:W33" si="3">-(10*$P$34*LOG10($E2)-$J$2)</f>
+        <f t="shared" ref="W3:W33" si="2">-(10*$P$34*LOG10($E2)-$J$2)</f>
         <v>-60.828821619399712</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y33" si="4">ABS(T3-$C2)*ABS(T3-$C2)</f>
+        <f t="shared" ref="Y3:Y33" si="3">ABS(T3-$C2)*ABS(T3-$C2)</f>
         <v>0.56935472169468793</v>
       </c>
       <c r="Z3" s="1">
-        <f t="shared" ref="Z3:Z33" si="5">ABS(U3-$F2)*ABS(U3-$F2)</f>
+        <f t="shared" ref="Z3:Z33" si="4">ABS(U3-$F2)*ABS(U3-$F2)</f>
         <v>0.44322595702942924</v>
       </c>
       <c r="AA3" s="1">
@@ -7569,12 +7569,12 @@
         <v>2.2954363001836806</v>
       </c>
       <c r="AB3" s="1">
-        <f t="shared" ref="AB3:AB33" si="6">ABS(W3-$F2)*ABS(W3-$F2)</f>
+        <f t="shared" ref="AB3:AB33" si="5">ABS(W3-$F2)*ABS(W3-$F2)</f>
         <v>2.305771767276235</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AE33" si="7">POWER(T3-$C$33,2)</f>
+        <f t="shared" ref="AE3:AE33" si="6">POWER(T3-$C$33,2)</f>
         <v>396.66568728372829</v>
       </c>
       <c r="AF3" s="1">
@@ -7582,7 +7582,7 @@
         <v>367.1788624751328</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AG33" si="8">POWER(U3-$F$33,2)</f>
+        <f t="shared" ref="AG3:AG33" si="7">POWER(U3-$F$33,2)</f>
         <v>387.53360608963561</v>
       </c>
       <c r="AH3" s="1">
@@ -7590,7 +7590,7 @@
         <v>361.76500620868541</v>
       </c>
       <c r="AI3" s="1">
-        <f t="shared" ref="AI3:AI33" si="9">POWER(V3-$C$33,2)</f>
+        <f t="shared" ref="AI3:AI33" si="8">POWER(V3-$C$33,2)</f>
         <v>311.41103363855132</v>
       </c>
       <c r="AJ3" s="1">
@@ -7598,7 +7598,7 @@
         <v>367.1788624751328</v>
       </c>
       <c r="AK3" s="1">
-        <f t="shared" ref="AK3:AK33" si="10">POWER(W3-$F$33,2)</f>
+        <f t="shared" ref="AK3:AK33" si="9">POWER(W3-$F$33,2)</f>
         <v>306.30755307622115</v>
       </c>
       <c r="AL3" s="1">
@@ -7649,24 +7649,24 @@
         <v>-61.990651568085873</v>
       </c>
       <c r="U4" s="1">
+        <f t="shared" ref="U3:U33" si="10">-(10*$N$34*LOG10($E3)-$H$2)</f>
+        <v>-62.028717869284748</v>
+      </c>
+      <c r="V4" s="1">
         <f t="shared" si="1"/>
-        <v>-62.028717869284748</v>
-      </c>
-      <c r="V4" s="1">
+        <v>-64.026797381447224</v>
+      </c>
+      <c r="W4" s="1">
         <f t="shared" si="2"/>
-        <v>-64.026797381447224</v>
-      </c>
-      <c r="W4" s="1">
-        <f t="shared" si="3"/>
         <v>-64.014841034836437</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7135379759898735</v>
+      </c>
+      <c r="Z4" s="1">
         <f t="shared" si="4"/>
-        <v>5.7135379759898735</v>
-      </c>
-      <c r="Z4" s="1">
-        <f t="shared" si="5"/>
         <v>5.8626071565210065</v>
       </c>
       <c r="AA4" s="1">
@@ -7674,12 +7674,12 @@
         <v>0.12542576367443622</v>
       </c>
       <c r="AB4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.18936332496222594</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AE4" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>271.27425719215046</v>
       </c>
       <c r="AF4" s="1">
@@ -7687,7 +7687,7 @@
         <v>198.24934787900983</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>265.74698937066711</v>
       </c>
       <c r="AH4" s="1">
@@ -7695,7 +7695,7 @@
         <v>192.66733403849616</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>208.34785257663114</v>
       </c>
       <c r="AJ4" s="1">
@@ -7703,7 +7703,7 @@
         <v>198.24934787900983</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>204.93711573123645</v>
       </c>
       <c r="AL4" s="1">
@@ -7748,24 +7748,24 @@
         <v>-64.725945053561546</v>
       </c>
       <c r="U5" s="1">
+        <f t="shared" si="10"/>
+        <v>-64.714849168398587</v>
+      </c>
+      <c r="V5" s="1">
         <f t="shared" si="1"/>
-        <v>-64.714849168398587</v>
-      </c>
-      <c r="V5" s="1">
+        <v>-66.576767446346068</v>
+      </c>
+      <c r="W5" s="1">
         <f t="shared" si="2"/>
-        <v>-66.576767446346068</v>
-      </c>
-      <c r="W5" s="1">
-        <f t="shared" si="3"/>
         <v>-66.543726914113591</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1">
+        <f t="shared" si="3"/>
+        <v>8.9026588306822365</v>
+      </c>
+      <c r="Z5" s="1">
         <f t="shared" si="4"/>
-        <v>8.9026588306822365</v>
-      </c>
-      <c r="Z5" s="1">
-        <f t="shared" si="5"/>
         <v>10.792215986371458</v>
       </c>
       <c r="AA5" s="1">
@@ -7773,12 +7773,12 @@
         <v>1.2834850069426558</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.1207313006771233</v>
       </c>
       <c r="AC5" s="1"/>
       <c r="AE5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>188.6533019328796</v>
       </c>
       <c r="AF5" s="1">
@@ -7786,7 +7786,7 @@
         <v>115.59216425827267</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>185.38501941095123</v>
       </c>
       <c r="AH5" s="1">
@@ -7794,7 +7794,7 @@
         <v>106.7185260366204</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>141.23633971072985</v>
       </c>
       <c r="AJ5" s="1">
@@ -7802,7 +7802,7 @@
         <v>115.59216425827267</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>138.92721629286561</v>
       </c>
       <c r="AL5" s="1">
@@ -7855,24 +7855,24 @@
         <v>-66.6666666666666</v>
       </c>
       <c r="U6" s="1">
+        <f t="shared" si="10"/>
+        <v>-66.620689655172413</v>
+      </c>
+      <c r="V6" s="1">
         <f t="shared" si="1"/>
-        <v>-66.620689655172413</v>
-      </c>
-      <c r="V6" s="1">
+        <v>-68.385999999999996</v>
+      </c>
+      <c r="W6" s="1">
         <f t="shared" si="2"/>
-        <v>-68.385999999999996</v>
-      </c>
-      <c r="W6" s="1">
-        <f t="shared" si="3"/>
         <v>-68.337999999999994</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA6" s="1">
@@ -7880,12 +7880,12 @@
         <v>2.9561071111113244</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.9491548204518252</v>
       </c>
       <c r="AC6" s="1"/>
       <c r="AE6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>139.10764483920508</v>
       </c>
       <c r="AF6" s="1">
@@ -7893,7 +7893,7 @@
         <v>139.10764483920508</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>137.11886007295408</v>
       </c>
       <c r="AH6" s="1">
@@ -7901,7 +7901,7 @@
         <v>137.11886007295408</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>101.5067748381537</v>
       </c>
       <c r="AJ6" s="1">
@@ -7909,7 +7909,7 @@
         <v>139.10764483920508</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>99.849375077568681</v>
       </c>
       <c r="AL6" s="1">
@@ -7962,24 +7962,24 @@
         <v>-69.401960152142266</v>
       </c>
       <c r="U7" s="1">
+        <f t="shared" si="10"/>
+        <v>-69.306820954286252</v>
+      </c>
+      <c r="V7" s="1">
         <f t="shared" si="1"/>
-        <v>-69.306820954286252</v>
-      </c>
-      <c r="V7" s="1">
+        <v>-70.935970064898839</v>
+      </c>
+      <c r="W7" s="1">
         <f t="shared" si="2"/>
-        <v>-70.935970064898839</v>
-      </c>
-      <c r="W7" s="1">
-        <f t="shared" si="3"/>
         <v>-70.866885879277149</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4357330715868519</v>
+      </c>
+      <c r="Z7" s="1">
         <f t="shared" si="4"/>
-        <v>3.4357330715868519</v>
-      </c>
-      <c r="Z7" s="1">
-        <f t="shared" si="5"/>
         <v>4.0848721657460469</v>
       </c>
       <c r="AA7" s="1">
@@ -7987,12 +7987,12 @@
         <v>11.475718365928772</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12.824789982541532</v>
       </c>
       <c r="AC7" s="1"/>
       <c r="AE7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>82.067236854201866</v>
       </c>
       <c r="AF7" s="1">
@@ -8000,7 +8000,7 @@
         <v>119.08636580850032</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>81.426168390679294</v>
       </c>
       <c r="AH7" s="1">
@@ -8008,7 +8008,7 @@
         <v>121.98653856933457</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>56.626934340528855</v>
       </c>
       <c r="AJ7" s="1">
@@ -8016,7 +8016,7 @@
         <v>119.08636580850032</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>55.705026960942952</v>
       </c>
       <c r="AL7" s="1">
@@ -8067,24 +8067,24 @@
         <v>-71.34268176524732</v>
       </c>
       <c r="U8" s="1">
+        <f t="shared" si="10"/>
+        <v>-71.212661441060078</v>
+      </c>
+      <c r="V8" s="1">
         <f t="shared" si="1"/>
-        <v>-71.212661441060078</v>
-      </c>
-      <c r="V8" s="1">
+        <v>-72.745202618552767</v>
+      </c>
+      <c r="W8" s="1">
         <f t="shared" si="2"/>
-        <v>-72.745202618552767</v>
-      </c>
-      <c r="W8" s="1">
-        <f t="shared" si="3"/>
         <v>-72.661158965163551</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.90972085099225897</v>
+      </c>
+      <c r="Z8" s="1">
         <f t="shared" si="4"/>
-        <v>0.90972085099225897</v>
-      </c>
-      <c r="Z8" s="1">
-        <f t="shared" si="5"/>
         <v>1.470547770633905</v>
       </c>
       <c r="AA8" s="1">
@@ -8092,12 +8092,12 @@
         <v>5.5522143926029131</v>
       </c>
       <c r="AB8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.0817670378703426</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AE8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>50.67126689056969</v>
       </c>
       <c r="AF8" s="1">
@@ -8105,7 +8105,7 @@
         <v>65.159899043510265</v>
       </c>
       <c r="AG8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>50.663140540017793</v>
       </c>
       <c r="AH8" s="1">
@@ -8113,7 +8113,7 @@
         <v>69.396662373591766</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32.670992038870928</v>
       </c>
       <c r="AJ8" s="1">
@@ -8121,7 +8121,7 @@
         <v>65.159899043510265</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>32.141041300048997</v>
       </c>
       <c r="AL8" s="1">
@@ -8172,24 +8172,24 @@
         <v>-72.848022397597958</v>
       </c>
       <c r="U9" s="1">
+        <f t="shared" si="10"/>
+        <v>-72.690946169867416</v>
+      </c>
+      <c r="V9" s="1">
         <f t="shared" si="1"/>
-        <v>-72.690946169867416</v>
-      </c>
-      <c r="V9" s="1">
+        <v>-74.148552412771451</v>
+      </c>
+      <c r="W9" s="1">
         <f t="shared" si="2"/>
-        <v>-74.148552412771451</v>
-      </c>
-      <c r="W9" s="1">
-        <f t="shared" si="3"/>
         <v>-74.052905294713881</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1">
+        <f t="shared" si="3"/>
+        <v>11.937079626599958</v>
+      </c>
+      <c r="Z9" s="1">
         <f t="shared" si="4"/>
-        <v>11.937079626599958</v>
-      </c>
-      <c r="Z9" s="1">
-        <f t="shared" si="5"/>
         <v>10.949837250715122</v>
       </c>
       <c r="AA9" s="1">
@@ -8197,12 +8197,12 @@
         <v>4.6417749796142092</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.7911777913532392</v>
       </c>
       <c r="AC9" s="1"/>
       <c r="AE9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>31.506158163611108</v>
       </c>
       <c r="AF9" s="1">
@@ -8210,7 +8210,7 @@
         <v>4.6570795000540928</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>31.804182964280308</v>
       </c>
       <c r="AH9" s="1">
@@ -8218,7 +8218,7 @@
         <v>5.4310713845058549</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>18.597696364854936</v>
       </c>
       <c r="AJ9" s="1">
@@ -8226,7 +8226,7 @@
         <v>4.6570795000540928</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>18.297524866700158</v>
       </c>
       <c r="AL9" s="1">
@@ -8277,24 +8277,24 @@
         <v>-74.077975250722986</v>
       </c>
       <c r="U10" s="1">
+        <f t="shared" si="10"/>
+        <v>-73.898792740173917</v>
+      </c>
+      <c r="V10" s="1">
         <f t="shared" si="1"/>
-        <v>-73.898792740173917</v>
-      </c>
-      <c r="V10" s="1">
+        <v>-75.295172683451597</v>
+      </c>
+      <c r="W10" s="1">
         <f t="shared" si="2"/>
-        <v>-75.295172683451597</v>
-      </c>
-      <c r="W10" s="1">
-        <f t="shared" si="3"/>
         <v>-75.190044844440706</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1">
+        <f t="shared" si="3"/>
+        <v>71.819799881512395</v>
+      </c>
+      <c r="Z10" s="1">
         <f t="shared" si="4"/>
-        <v>71.819799881512395</v>
-      </c>
-      <c r="Z10" s="1">
-        <f t="shared" si="5"/>
         <v>85.197321557629209</v>
       </c>
       <c r="AA10" s="1">
@@ -8302,12 +8302,12 @@
         <v>52.670709619809699</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.027521153677213</v>
       </c>
       <c r="AC10" s="1"/>
       <c r="AE10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>19.211406179833848</v>
       </c>
       <c r="AF10" s="1">
@@ -8315,7 +8315,7 @@
         <v>16.740982013276032</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>19.639727135184057</v>
       </c>
       <c r="AH10" s="1">
@@ -8323,7 +8323,7 @@
         <v>23.026238941524969</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10.022823909522621</v>
       </c>
       <c r="AJ10" s="1">
@@ -8331,7 +8331,7 @@
         <v>16.740982013276032</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9.8622445051683787</v>
       </c>
       <c r="AL10" s="1">
@@ -8382,24 +8382,24 @@
         <v>-75.117885570702143</v>
       </c>
       <c r="U11" s="1">
+        <f t="shared" si="10"/>
+        <v>-74.920012464346129</v>
+      </c>
+      <c r="V11" s="1">
         <f t="shared" si="1"/>
-        <v>-74.920012464346129</v>
-      </c>
-      <c r="V11" s="1">
+        <v>-76.264626308887742</v>
+      </c>
+      <c r="W11" s="1">
         <f t="shared" si="2"/>
-        <v>-76.264626308887742</v>
-      </c>
-      <c r="W11" s="1">
-        <f t="shared" si="3"/>
         <v>-76.151482634525806</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9499333610001945</v>
+      </c>
+      <c r="Z11" s="1">
         <f t="shared" si="4"/>
-        <v>1.9499333610001945</v>
-      </c>
-      <c r="Z11" s="1">
-        <f t="shared" si="5"/>
         <v>2.881963216366469</v>
       </c>
       <c r="AA11" s="1">
@@ -8407,12 +8407,12 @@
         <v>6.2329818703664684E-2</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.21730927048083434</v>
       </c>
       <c r="AC11" s="1"/>
       <c r="AE11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11.176795632038948</v>
       </c>
       <c r="AF11" s="1">
@@ -8420,7 +8420,7 @@
         <v>3.7899186871597306</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>11.631192744241405</v>
       </c>
       <c r="AH11" s="1">
@@ -8428,7 +8428,7 @@
         <v>2.9337484366674031</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4.8243080609777858</v>
       </c>
       <c r="AJ11" s="1">
@@ -8436,7 +8436,7 @@
         <v>3.7899186871597306</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.7479681398857556</v>
       </c>
       <c r="AL11" s="1">
@@ -8487,24 +8487,24 @@
         <v>-76.018696863828055</v>
       </c>
       <c r="U12" s="1">
+        <f t="shared" si="10"/>
+        <v>-75.804633226947743</v>
+      </c>
+      <c r="V12" s="1">
         <f t="shared" si="1"/>
-        <v>-75.804633226947743</v>
-      </c>
-      <c r="V12" s="1">
+        <v>-77.104405237105539</v>
+      </c>
+      <c r="W12" s="1">
         <f t="shared" si="2"/>
-        <v>-77.104405237105539</v>
-      </c>
-      <c r="W12" s="1">
-        <f t="shared" si="3"/>
         <v>-76.984317930327109</v>
       </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1">
+        <f t="shared" si="3"/>
+        <v>33.213567325871274</v>
+      </c>
+      <c r="Z12" s="1">
         <f t="shared" si="4"/>
-        <v>33.213567325871274</v>
-      </c>
-      <c r="Z12" s="1">
-        <f t="shared" si="5"/>
         <v>29.067681392315304</v>
       </c>
       <c r="AA12" s="1">
@@ -8512,12 +8512,12 @@
         <v>21.878191855364598</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17.738926518166593</v>
       </c>
       <c r="AC12" s="1"/>
       <c r="AE12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.965123346243935</v>
       </c>
       <c r="AF12" s="1">
@@ -8525,7 +8525,7 @@
         <v>11.027454403162508</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.3798307718582041</v>
       </c>
       <c r="AH12" s="1">
@@ -8533,7 +8533,7 @@
         <v>8.211735089651599</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.8405041787828411</v>
       </c>
       <c r="AJ12" s="1">
@@ -8541,7 +8541,7 @@
         <v>11.027454403162508</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.8121143986773838</v>
       </c>
       <c r="AL12" s="1">
@@ -8592,24 +8592,24 @@
         <v>-76.813268736198651</v>
       </c>
       <c r="U13" s="1">
+        <f t="shared" si="10"/>
+        <v>-76.584924039287756</v>
+      </c>
+      <c r="V13" s="1">
         <f t="shared" si="1"/>
-        <v>-76.584924039287756</v>
-      </c>
-      <c r="V13" s="1">
+        <v>-77.84514274835044</v>
+      </c>
+      <c r="W13" s="1">
         <f t="shared" si="2"/>
-        <v>-77.84514274835044</v>
-      </c>
-      <c r="W13" s="1">
-        <f t="shared" si="3"/>
         <v>-77.718930723717875</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1">
+        <f t="shared" si="3"/>
+        <v>11.821691902321071</v>
+      </c>
+      <c r="Z13" s="1">
         <f t="shared" si="4"/>
-        <v>11.821691902321071</v>
-      </c>
-      <c r="Z13" s="1">
-        <f t="shared" si="5"/>
         <v>10.020828363648523</v>
       </c>
       <c r="AA13" s="1">
@@ -8617,12 +8617,12 @@
         <v>19.982176190630028</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18.486352790944007</v>
       </c>
       <c r="AC13" s="1"/>
       <c r="AE13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.7152063724692339</v>
       </c>
       <c r="AF13" s="1">
@@ -8630,7 +8630,7 @@
         <v>25.867976455890304</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.0469164425083246</v>
       </c>
       <c r="AH13" s="1">
@@ -8638,7 +8638,7 @@
         <v>24.119012011098455</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.37935044393457773</v>
       </c>
       <c r="AJ13" s="1">
@@ -8646,7 +8646,7 @@
         <v>25.867976455890304</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.37397529110252392</v>
       </c>
       <c r="AL13" s="1">
@@ -8697,24 +8697,24 @@
         <v>-77.524037496178693</v>
       </c>
       <c r="U14" s="1">
+        <f t="shared" si="10"/>
+        <v>-77.282917955755067</v>
+      </c>
+      <c r="V14" s="1">
         <f t="shared" si="1"/>
-        <v>-77.282917955755067</v>
-      </c>
-      <c r="V14" s="1">
+        <v>-78.507755031324223</v>
+      </c>
+      <c r="W14" s="1">
         <f t="shared" si="2"/>
-        <v>-78.507755031324223</v>
-      </c>
-      <c r="W14" s="1">
-        <f t="shared" si="3"/>
         <v>-78.376064259877438</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1">
+        <f t="shared" si="3"/>
+        <v>12.583289828108589</v>
+      </c>
+      <c r="Z14" s="1">
         <f t="shared" si="4"/>
-        <v>12.583289828108589</v>
-      </c>
-      <c r="Z14" s="1">
-        <f t="shared" si="5"/>
         <v>10.77755030421903</v>
       </c>
       <c r="AA14" s="1">
@@ -8722,12 +8722,12 @@
         <v>20.530059280024318</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19.14993840657667</v>
       </c>
       <c r="AC14" s="1"/>
       <c r="AE14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.87800567004266095</v>
       </c>
       <c r="AF14" s="1">
@@ -8735,7 +8735,7 @@
         <v>20.109061985286456</v>
       </c>
       <c r="AG14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0973567285045442</v>
       </c>
       <c r="AH14" s="1">
@@ -8743,7 +8743,7 @@
         <v>18.752935047534493</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.1807001740111833E-3</v>
       </c>
       <c r="AJ14" s="1">
@@ -8751,7 +8751,7 @@
         <v>20.109061985286456</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0792089865113795E-3</v>
       </c>
       <c r="AL14" s="1">
@@ -8802,24 +8802,24 @@
         <v>-78.167006049341438</v>
       </c>
       <c r="U15" s="1">
+        <f t="shared" si="10"/>
+        <v>-77.914330257274912</v>
+      </c>
+      <c r="V15" s="1">
         <f t="shared" si="1"/>
-        <v>-77.914330257274912</v>
-      </c>
-      <c r="V15" s="1">
+        <v>-79.107160752115178</v>
+      </c>
+      <c r="W15" s="1">
         <f t="shared" si="2"/>
-        <v>-79.107160752115178</v>
-      </c>
-      <c r="W15" s="1">
-        <f t="shared" si="3"/>
         <v>-78.970513851318543</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7643712516615087</v>
+      </c>
+      <c r="Z15" s="1">
         <f t="shared" si="4"/>
-        <v>1.7643712516615087</v>
-      </c>
-      <c r="Z15" s="1">
-        <f t="shared" si="5"/>
         <v>1.3171317172078125</v>
       </c>
       <c r="AA15" s="1">
@@ -8827,12 +8827,12 @@
         <v>5.1458702782888706</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.8569424132980066</v>
       </c>
       <c r="AC15" s="1"/>
       <c r="AE15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.6465999084476761E-2</v>
       </c>
       <c r="AF15" s="1">
@@ -8840,7 +8840,7 @@
         <v>2.6320110419879628</v>
       </c>
       <c r="AG15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.17316888626045338</v>
       </c>
       <c r="AH15" s="1">
@@ -8848,7 +8848,7 @@
         <v>2.4454680914559912</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.41744997609761375</v>
       </c>
       <c r="AJ15" s="1">
@@ -8856,7 +8856,7 @@
         <v>2.6320110419879628</v>
       </c>
       <c r="AK15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.40966135981638951</v>
       </c>
       <c r="AL15" s="1">
@@ -8907,24 +8907,24 @@
         <v>-78.75399034930372</v>
       </c>
       <c r="U16" s="1">
+        <f t="shared" si="10"/>
+        <v>-78.490764526061582</v>
+      </c>
+      <c r="V16" s="1">
         <f t="shared" si="1"/>
-        <v>-78.490764526061582</v>
-      </c>
-      <c r="V16" s="1">
+        <v>-79.654375302004368</v>
+      </c>
+      <c r="W16" s="1">
         <f t="shared" si="2"/>
-        <v>-79.654375302004368</v>
-      </c>
-      <c r="W16" s="1">
-        <f t="shared" si="3"/>
         <v>-79.513203809604278</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1">
+        <f t="shared" si="3"/>
+        <v>23.534847863374186</v>
+      </c>
+      <c r="Z16" s="1">
         <f t="shared" si="4"/>
-        <v>23.534847863374186</v>
-      </c>
-      <c r="Z16" s="1">
-        <f t="shared" si="5"/>
         <v>26.158096255023242</v>
       </c>
       <c r="AA16" s="1">
@@ -8932,12 +8932,12 @@
         <v>15.609514849821682</v>
       </c>
       <c r="AB16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.744949709931362</v>
       </c>
       <c r="AC16" s="1"/>
       <c r="AE16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.5809909775561896E-2</v>
       </c>
       <c r="AF16" s="1">
@@ -8945,7 +8945,7 @@
         <v>26.462856338864476</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.5695644465529285E-2</v>
       </c>
       <c r="AH16" s="1">
@@ -8953,7 +8953,7 @@
         <v>27.823485945662227</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.4240084177108498</v>
       </c>
       <c r="AJ16" s="1">
@@ -8961,7 +8961,7 @@
         <v>26.462856338864476</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.3988689255419178</v>
       </c>
       <c r="AL16" s="1">
@@ -9012,24 +9012,24 @@
         <v>-79.293963561501428</v>
       </c>
       <c r="U17" s="1">
+        <f t="shared" si="10"/>
+        <v>-79.021032650366749</v>
+      </c>
+      <c r="V17" s="1">
         <f t="shared" si="1"/>
-        <v>-79.021032650366749</v>
-      </c>
-      <c r="V17" s="1">
+        <v>-80.157763890564539</v>
+      </c>
+      <c r="W17" s="1">
         <f t="shared" si="2"/>
-        <v>-80.157763890564539</v>
-      </c>
-      <c r="W17" s="1">
-        <f t="shared" si="3"/>
         <v>-80.012430177365403</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1">
+        <f t="shared" si="3"/>
+        <v>25.500343074444089</v>
+      </c>
+      <c r="Z17" s="1">
         <f t="shared" si="4"/>
-        <v>25.500343074444089</v>
-      </c>
-      <c r="Z17" s="1">
-        <f t="shared" si="5"/>
         <v>29.013033023284784</v>
       </c>
       <c r="AA17" s="1">
@@ -9037,12 +9037,12 @@
         <v>17.52247970838663</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19.315824852587671</v>
       </c>
       <c r="AC17" s="1"/>
       <c r="AE17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.69373323396886888</v>
       </c>
       <c r="AF17" s="1">
@@ -9050,7 +9050,7 @@
         <v>34.606076182010142</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.47688241494935135</v>
       </c>
       <c r="AH17" s="1">
@@ -9058,7 +9058,7 @@
         <v>36.929217892940315</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.878814056102672</v>
       </c>
       <c r="AJ17" s="1">
@@ -9066,7 +9066,7 @@
         <v>34.606076182010142</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.8290037773273631</v>
       </c>
       <c r="AL17" s="1">
@@ -9117,24 +9117,24 @@
         <v>-79.793900669282877</v>
       </c>
       <c r="U18" s="1">
+        <f t="shared" si="10"/>
+        <v>-79.511984250233795</v>
+      </c>
+      <c r="V18" s="1">
         <f t="shared" si="1"/>
-        <v>-79.511984250233795</v>
-      </c>
-      <c r="V18" s="1">
+        <v>-80.623828927440513</v>
+      </c>
+      <c r="W18" s="1">
         <f t="shared" si="2"/>
-        <v>-80.623828927440513</v>
-      </c>
-      <c r="W18" s="1">
-        <f t="shared" si="3"/>
         <v>-80.474641599689363</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1">
+        <f t="shared" si="3"/>
+        <v>26.288528517584524</v>
+      </c>
+      <c r="Z18" s="1">
         <f t="shared" si="4"/>
-        <v>26.288528517584524</v>
-      </c>
-      <c r="Z18" s="1">
-        <f t="shared" si="5"/>
         <v>31.574589448855143</v>
       </c>
       <c r="AA18" s="1">
@@ -9142,12 +9142,12 @@
         <v>35.487782201188956</v>
       </c>
       <c r="AB18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43.319886636198255</v>
       </c>
       <c r="AC18" s="1"/>
       <c r="AE18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.7764720767655833</v>
       </c>
       <c r="AF18" s="1">
@@ -9155,7 +9155,7 @@
         <v>14.397398485604823</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.3959855747044423</v>
       </c>
       <c r="AH18" s="1">
@@ -9163,7 +9163,7 @@
         <v>19.692371621319225</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4.6775821342994579</v>
       </c>
       <c r="AJ18" s="1">
@@ -9171,7 +9171,7 @@
         <v>14.397398485604823</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.597489363566134</v>
       </c>
       <c r="AL18" s="1">
@@ -9222,24 +9222,24 @@
         <v>-80.259330981654358</v>
       </c>
       <c r="U19" s="1">
+        <f t="shared" si="10"/>
+        <v>-79.969049254868921</v>
+      </c>
+      <c r="V19" s="1">
         <f t="shared" si="1"/>
-        <v>-79.969049254868921</v>
-      </c>
-      <c r="V19" s="1">
+        <v>-81.057725096223066</v>
+      </c>
+      <c r="W19" s="1">
         <f t="shared" si="2"/>
-        <v>-81.057725096223066</v>
-      </c>
-      <c r="W19" s="1">
-        <f t="shared" si="3"/>
         <v>-80.904950139154593</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1">
+        <f t="shared" si="3"/>
+        <v>30.191038754300454</v>
+      </c>
+      <c r="Z19" s="1">
         <f t="shared" si="4"/>
-        <v>30.191038754300454</v>
-      </c>
-      <c r="Z19" s="1">
-        <f t="shared" si="5"/>
         <v>14.852294027716693</v>
       </c>
       <c r="AA19" s="1">
@@ -9247,12 +9247,12 @@
         <v>22.054699796667947</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.5145286556808966</v>
       </c>
       <c r="AC19" s="1"/>
       <c r="AE19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.2337890837553256</v>
       </c>
       <c r="AF19" s="1">
@@ -9260,7 +9260,7 @@
         <v>53.18655362816741</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.68495535921465</v>
       </c>
       <c r="AH19" s="1">
@@ -9268,7 +9268,7 @@
         <v>30.167015251166465</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6.7426848707812477</v>
       </c>
       <c r="AJ19" s="1">
@@ -9276,7 +9276,7 @@
         <v>53.18655362816741</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6.6279690165222886</v>
       </c>
       <c r="AL19" s="1">
@@ -9327,24 +9327,24 @@
         <v>-80.694711962408775</v>
       </c>
       <c r="U20" s="1">
+        <f t="shared" si="10"/>
+        <v>-80.396605012835408</v>
+      </c>
+      <c r="V20" s="1">
         <f t="shared" si="1"/>
-        <v>-80.396605012835408</v>
-      </c>
-      <c r="V20" s="1">
+        <v>-81.463607855658296</v>
+      </c>
+      <c r="W20" s="1">
         <f t="shared" si="2"/>
-        <v>-81.463607855658296</v>
-      </c>
-      <c r="W20" s="1">
-        <f t="shared" si="3"/>
         <v>-81.307476895490666</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1">
+        <f t="shared" si="3"/>
+        <v>110.43546300372323</v>
+      </c>
+      <c r="Z20" s="1">
         <f t="shared" si="4"/>
-        <v>110.43546300372323</v>
-      </c>
-      <c r="Z20" s="1">
-        <f t="shared" si="5"/>
         <v>122.50154157900778</v>
       </c>
       <c r="AA20" s="1">
@@ -9352,12 +9352,12 @@
         <v>94.86627472861619</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>103.16809365658457</v>
       </c>
       <c r="AC20" s="1"/>
       <c r="AE20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.9892142062281071</v>
       </c>
       <c r="AF20" s="1">
@@ -9365,7 +9365,7 @@
         <v>162.37086686958418</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.2689307684753226</v>
       </c>
       <c r="AH20" s="1">
@@ -9373,7 +9373,7 @@
         <v>172.50669869082216</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.0153112578893477</v>
       </c>
       <c r="AJ20" s="1">
@@ -9381,7 +9381,7 @@
         <v>162.37086686958418</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8.8625943734538541</v>
       </c>
       <c r="AL20" s="1">
@@ -9432,24 +9432,24 @@
         <v>-81.103689528660141</v>
       </c>
       <c r="U21" s="1">
+        <f t="shared" si="10"/>
+        <v>-80.798231912170536</v>
+      </c>
+      <c r="V21" s="1">
         <f t="shared" si="1"/>
-        <v>-80.798231912170536</v>
-      </c>
-      <c r="V21" s="1">
+        <v>-81.844876102262845</v>
+      </c>
+      <c r="W21" s="1">
         <f t="shared" si="2"/>
-        <v>-81.844876102262845</v>
-      </c>
-      <c r="W21" s="1">
-        <f t="shared" si="3"/>
         <v>-81.685592661760751</v>
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0148982447879951</v>
+      </c>
+      <c r="Z21" s="1">
         <f t="shared" si="4"/>
-        <v>1.0148982447879951</v>
-      </c>
-      <c r="Z21" s="1">
-        <f t="shared" si="5"/>
         <v>0.40143156108602601</v>
       </c>
       <c r="AA21" s="1">
@@ -9457,12 +9457,12 @@
         <v>7.0881079936430669E-2</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.4401486670118746E-2</v>
       </c>
       <c r="AC21" s="1"/>
       <c r="AE21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.9835063445092196</v>
       </c>
       <c r="AF21" s="1">
@@ -9470,7 +9470,7 @@
         <v>13.322894548535841</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.0898690130541056</v>
       </c>
       <c r="AH21" s="1">
@@ -9478,7 +9478,7 @@
         <v>9.6183858782018721</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>11.450231285289533</v>
       </c>
       <c r="AJ21" s="1">
@@ -9486,7 +9486,7 @@
         <v>13.322894548535841</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>11.256875481748649</v>
       </c>
       <c r="AL21" s="1">
@@ -9537,24 +9537,24 @@
         <v>-81.489283834779386</v>
       </c>
       <c r="U22" s="1">
+        <f t="shared" si="10"/>
+        <v>-81.176895825175421</v>
+      </c>
+      <c r="V22" s="1">
         <f t="shared" si="1"/>
-        <v>-81.176895825175421</v>
-      </c>
-      <c r="V22" s="1">
+        <v>-82.204345366903212</v>
+      </c>
+      <c r="W22" s="1">
         <f t="shared" si="2"/>
-        <v>-82.204345366903212</v>
-      </c>
-      <c r="W22" s="1">
-        <f t="shared" si="3"/>
         <v>-82.042089688881433</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.54980059246616897</v>
+      </c>
+      <c r="Z22" s="1">
         <f t="shared" si="4"/>
-        <v>0.54980059246616897</v>
-      </c>
-      <c r="Z22" s="1">
-        <f t="shared" si="5"/>
         <v>1.3982569988938165</v>
       </c>
       <c r="AA22" s="1">
@@ -9562,12 +9562,12 @@
         <v>6.9822058160816922E-4</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.1006699686516061</v>
       </c>
       <c r="AC22" s="1"/>
       <c r="AE22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.1701573766784179</v>
       </c>
       <c r="AF22" s="1">
@@ -9575,7 +9575,7 @@
         <v>14.210729822047293</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8.1021632292308556</v>
       </c>
       <c r="AH22" s="1">
@@ -9583,7 +9583,7 @@
         <v>16.232108409094486</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>14.012207320399247</v>
       </c>
       <c r="AJ22" s="1">
@@ -9591,7 +9591,7 @@
         <v>14.210729822047293</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>13.776151033221268</v>
       </c>
       <c r="AL22" s="1">
@@ -9642,24 +9642,24 @@
         <v>-81.854024758624561</v>
       </c>
       <c r="U23" s="1">
+        <f t="shared" si="10"/>
+        <v>-81.535081159513624</v>
+      </c>
+      <c r="V23" s="1">
         <f t="shared" si="1"/>
-        <v>-81.535081159513624</v>
-      </c>
-      <c r="V23" s="1">
+        <v>-82.544374121472856</v>
+      </c>
+      <c r="W23" s="1">
         <f t="shared" si="2"/>
-        <v>-82.544374121472856</v>
-      </c>
-      <c r="W23" s="1">
-        <f t="shared" si="3"/>
         <v>-82.379306947945011</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4354694414636351</v>
+      </c>
+      <c r="Z23" s="1">
         <f t="shared" si="4"/>
-        <v>1.4354694414636351</v>
-      </c>
-      <c r="Z23" s="1">
-        <f t="shared" si="5"/>
         <v>0.70300166580228962</v>
       </c>
       <c r="AA23" s="1">
@@ -9667,12 +9667,12 @@
         <v>3.5662817116174725</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.8314043580537045</v>
       </c>
       <c r="AC23" s="1"/>
       <c r="AE23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11.512229778349631</v>
       </c>
       <c r="AF23" s="1">
@@ -9680,7 +9680,7 @@
         <v>4.8173968761292203</v>
       </c>
       <c r="AG23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10.269558860516304</v>
       </c>
       <c r="AH23" s="1">
@@ -9688,7 +9688,7 @@
         <v>5.5987287515055311</v>
       </c>
       <c r="AI23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>16.673478193754736</v>
       </c>
       <c r="AJ23" s="1">
@@ -9696,7 +9696,7 @@
         <v>4.8173968761292203</v>
       </c>
       <c r="AK23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>16.393113703927991</v>
       </c>
       <c r="AL23" s="1">
@@ -9747,24 +9747,24 @@
         <v>-82.200052594759413</v>
       </c>
       <c r="U24" s="1">
+        <f t="shared" si="10"/>
+        <v>-81.874889741642733</v>
+      </c>
+      <c r="V24" s="1">
         <f t="shared" si="1"/>
-        <v>-81.874889741642733</v>
-      </c>
-      <c r="V24" s="1">
+        <v>-82.866957649876994</v>
+      </c>
+      <c r="W24" s="1">
         <f t="shared" si="2"/>
-        <v>-82.866957649876994</v>
-      </c>
-      <c r="W24" s="1">
-        <f t="shared" si="3"/>
         <v>-82.699223225040996</v>
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1">
+        <f t="shared" si="3"/>
+        <v>13.690389203985863</v>
+      </c>
+      <c r="Z24" s="1">
         <f t="shared" si="4"/>
-        <v>13.690389203985863</v>
-      </c>
-      <c r="Z24" s="1">
-        <f t="shared" si="5"/>
         <v>11.628788893276717</v>
       </c>
       <c r="AA24" s="1">
@@ -9772,12 +9772,12 @@
         <v>19.070319115819199</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17.930435472515505</v>
       </c>
       <c r="AC24" s="1"/>
       <c r="AE24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13.980087580784097</v>
       </c>
       <c r="AF24" s="1">
@@ -9785,7 +9785,7 @@
         <v>1.516552282477323E-3</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>12.562940257505325</v>
       </c>
       <c r="AH24" s="1">
@@ -9793,7 +9793,7 @@
         <v>1.8042619069353158E-2</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>19.411959974687765</v>
       </c>
       <c r="AJ24" s="1">
@@ -9801,7 +9801,7 @@
         <v>1.516552282477323E-3</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>19.086040427420947</v>
       </c>
       <c r="AL24" s="1">
@@ -9852,24 +9852,24 @@
         <v>-82.529194154758542</v>
       </c>
       <c r="U25" s="1">
+        <f t="shared" si="10"/>
+        <v>-82.198115549347634</v>
+      </c>
+      <c r="V25" s="1">
         <f t="shared" si="1"/>
-        <v>-82.198115549347634</v>
-      </c>
-      <c r="V25" s="1">
+        <v>-83.173798992339343</v>
+      </c>
+      <c r="W25" s="1">
         <f t="shared" si="2"/>
-        <v>-83.173798992339343</v>
-      </c>
-      <c r="W25" s="1">
-        <f t="shared" si="3"/>
         <v>-83.003527478966532</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1">
+        <f t="shared" si="3"/>
+        <v>24.098360451567363</v>
+      </c>
+      <c r="Z25" s="1">
         <f t="shared" si="4"/>
-        <v>24.098360451567363</v>
-      </c>
-      <c r="Z25" s="1">
-        <f t="shared" si="5"/>
         <v>23.058094277416977</v>
       </c>
       <c r="AA25" s="1">
@@ -9877,12 +9877,12 @@
         <v>18.185135119989411</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15.971792611375601</v>
       </c>
       <c r="AC25" s="1"/>
       <c r="AE25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.549739391104243</v>
       </c>
       <c r="AF25" s="1">
@@ -9890,7 +9890,7 @@
         <v>80.589135644279608</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14.958713688212532</v>
       </c>
       <c r="AH25" s="1">
@@ -9898,7 +9898,7 @@
         <v>75.160821237848353</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>22.209936485327372</v>
       </c>
       <c r="AJ25" s="1">
@@ -9906,7 +9906,7 @@
         <v>80.589135644279608</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>21.837504373544828</v>
       </c>
       <c r="AL25" s="1">
@@ -9957,24 +9957,24 @@
         <v>-82.843021147922158</v>
       </c>
       <c r="U26" s="1">
+        <f t="shared" si="10"/>
+        <v>-82.506302043162577</v>
+      </c>
+      <c r="V26" s="1">
         <f t="shared" si="1"/>
-        <v>-82.506302043162577</v>
-      </c>
-      <c r="V26" s="1">
+        <v>-83.466363370667949</v>
+      </c>
+      <c r="W26" s="1">
         <f t="shared" si="2"/>
-        <v>-83.466363370667949</v>
-      </c>
-      <c r="W26" s="1">
-        <f t="shared" si="3"/>
         <v>-83.293672816482101</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1">
+        <f t="shared" si="3"/>
+        <v>2.908273019503707</v>
+      </c>
+      <c r="Z26" s="1">
         <f t="shared" si="4"/>
-        <v>2.908273019503707</v>
-      </c>
-      <c r="Z26" s="1">
-        <f t="shared" si="5"/>
         <v>4.6414921108567073</v>
       </c>
       <c r="AA26" s="1">
@@ -9982,12 +9982,12 @@
         <v>1.1707753438566537</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.8688023786005081</v>
       </c>
       <c r="AC26" s="1"/>
       <c r="AE26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>19.20160923482911</v>
       </c>
       <c r="AF26" s="1">
@@ -9995,7 +9995,7 @@
         <v>37.05558693075497</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>17.437607362944281</v>
       </c>
       <c r="AH26" s="1">
@@ -10003,7 +10003,7 @@
         <v>40.072044425344934</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25.05309122590625</v>
       </c>
       <c r="AJ26" s="1">
@@ -10011,7 +10011,7 @@
         <v>37.05558693075497</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>24.633422739403677</v>
       </c>
       <c r="AL26" s="1">
@@ -10062,24 +10062,24 @@
         <v>-83.142895573973831</v>
       </c>
       <c r="U27" s="1">
+        <f t="shared" si="10"/>
+        <v>-82.800786743213365</v>
+      </c>
+      <c r="V27" s="1">
         <f t="shared" si="1"/>
-        <v>-82.800786743213365</v>
-      </c>
-      <c r="V27" s="1">
+        <v>-83.745920505476633</v>
+      </c>
+      <c r="W27" s="1">
         <f t="shared" si="2"/>
-        <v>-83.745920505476633</v>
-      </c>
-      <c r="W27" s="1">
-        <f t="shared" si="3"/>
         <v>-83.570918459637113</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8117713855608424</v>
+      </c>
+      <c r="Z27" s="1">
         <f t="shared" si="4"/>
-        <v>1.8117713855608424</v>
-      </c>
-      <c r="Z27" s="1">
-        <f t="shared" si="5"/>
         <v>1.692046151319633</v>
       </c>
       <c r="AA27" s="1">
@@ -10087,12 +10087,12 @@
         <v>3.7987783824186634</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.2887032664657534</v>
       </c>
       <c r="AC27" s="1"/>
       <c r="AE27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21.919611835659307</v>
       </c>
       <c r="AF27" s="1">
@@ -10100,7 +10100,7 @@
         <v>11.127681303696345</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>19.983768300388736</v>
       </c>
       <c r="AH27" s="1">
@@ -10108,7 +10108,7 @@
         <v>10.045946311177103</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>27.929781597523032</v>
       </c>
       <c r="AJ27" s="1">
@@ -10116,7 +10116,7 @@
         <v>11.127681303696345</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>27.462342864657881</v>
       </c>
       <c r="AL27" s="1">
@@ -10167,24 +10167,24 @@
         <v>-83.43000544788444</v>
       </c>
       <c r="U28" s="1">
+        <f t="shared" si="10"/>
+        <v>-83.082736311949247</v>
+      </c>
+      <c r="V28" s="1">
         <f t="shared" si="1"/>
-        <v>-83.082736311949247</v>
-      </c>
-      <c r="V28" s="1">
+        <v>-84.01357792055714</v>
+      </c>
+      <c r="W28" s="1">
         <f t="shared" si="2"/>
-        <v>-84.01357792055714</v>
-      </c>
-      <c r="W28" s="1">
-        <f t="shared" si="3"/>
         <v>-83.836362774767821</v>
       </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="1">
+        <f t="shared" si="3"/>
+        <v>13.429097831073525</v>
+      </c>
+      <c r="Z28" s="1">
         <f t="shared" si="4"/>
-        <v>13.429097831073525</v>
-      </c>
-      <c r="Z28" s="1">
-        <f t="shared" si="5"/>
         <v>10.587142489026311</v>
       </c>
       <c r="AA28" s="1">
@@ -10192,12 +10192,12 @@
         <v>18.046742923206601</v>
       </c>
       <c r="AB28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.059378239025417</v>
       </c>
       <c r="AC28" s="1"/>
       <c r="AE28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>24.690448044027125</v>
       </c>
       <c r="AF28" s="1">
@@ -10205,7 +10205,7 @@
         <v>1.7013942319280806</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22.584073918523707</v>
       </c>
       <c r="AH28" s="1">
@@ -10213,7 +10213,7 @@
         <v>2.2454466639776989</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>30.830487865093758</v>
       </c>
       <c r="AJ28" s="1">
@@ -10221,7 +10221,7 @@
         <v>1.7013942319280806</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30.314900222063468</v>
       </c>
       <c r="AL28" s="1">
@@ -10272,24 +10272,24 @@
         <v>-83.705393227110051</v>
       </c>
       <c r="U29" s="1">
+        <f t="shared" si="10"/>
+        <v>-83.353174470450071</v>
+      </c>
+      <c r="V29" s="1">
         <f t="shared" si="1"/>
-        <v>-83.353174470450071</v>
-      </c>
-      <c r="V29" s="1">
+        <v>-84.270307444095693</v>
+      </c>
+      <c r="W29" s="1">
         <f t="shared" si="2"/>
-        <v>-84.270307444095693</v>
-      </c>
-      <c r="W29" s="1">
-        <f t="shared" si="3"/>
         <v>-84.090969554591311</v>
       </c>
       <c r="X29" s="1"/>
       <c r="Y29" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12057447298664854</v>
+      </c>
+      <c r="Z29" s="1">
         <f t="shared" si="4"/>
-        <v>0.12057447298664854</v>
-      </c>
-      <c r="Z29" s="1">
-        <f t="shared" si="5"/>
         <v>0.57216300268529463</v>
       </c>
       <c r="AA29" s="1">
@@ -10297,12 +10297,12 @@
         <v>4.7382782268101657E-2</v>
       </c>
       <c r="AB29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.4668527769410058E-4</v>
       </c>
       <c r="AC29" s="1"/>
       <c r="AE29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>27.503061794151726</v>
       </c>
       <c r="AF29" s="1">
@@ -10310,7 +10310,7 @@
         <v>31.265705558818077</v>
       </c>
       <c r="AG29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25.22760122538536</v>
       </c>
       <c r="AH29" s="1">
@@ -10318,7 +10318,7 @@
         <v>33.398264097824871</v>
       </c>
       <c r="AI29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>33.747389981353507</v>
       </c>
       <c r="AJ29" s="1">
@@ -10326,7 +10326,7 @@
         <v>31.265705558818077</v>
       </c>
       <c r="AK29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>33.183402173021506</v>
       </c>
       <c r="AL29" s="1">
@@ -10377,24 +10377,24 @@
         <v>-83.969978660082148</v>
       </c>
       <c r="U30" s="1">
+        <f t="shared" si="10"/>
+        <v>-83.6130044362544</v>
+      </c>
+      <c r="V30" s="1">
         <f t="shared" si="1"/>
-        <v>-83.6130044362544</v>
-      </c>
-      <c r="V30" s="1">
+        <v>-84.51696650911731</v>
+      </c>
+      <c r="W30" s="1">
         <f t="shared" si="2"/>
-        <v>-84.51696650911731</v>
-      </c>
-      <c r="W30" s="1">
-        <f t="shared" si="3"/>
         <v>-84.33558914252896</v>
       </c>
       <c r="X30" s="1"/>
       <c r="Y30" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0641328449504504</v>
+      </c>
+      <c r="Z30" s="1">
         <f t="shared" si="4"/>
-        <v>3.0641328449504504</v>
-      </c>
-      <c r="Z30" s="1">
-        <f t="shared" si="5"/>
         <v>2.2046289851836076</v>
       </c>
       <c r="AA30" s="1">
@@ -10402,12 +10402,12 @@
         <v>5.2782963248961492</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.8725441866924113</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AE30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30.348217154351659</v>
       </c>
       <c r="AF30" s="1">
@@ -10415,7 +10415,7 @@
         <v>14.125984974410809</v>
       </c>
       <c r="AG30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>27.905213220537174</v>
       </c>
       <c r="AH30" s="1">
@@ -10423,7 +10423,7 @@
         <v>14.422823125764889</v>
       </c>
       <c r="AI30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>36.674039210287738</v>
       </c>
       <c r="AJ30" s="1">
@@ -10431,7 +10431,7 @@
         <v>14.125984974410809</v>
       </c>
       <c r="AK30" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>36.061504968714161</v>
       </c>
       <c r="AL30" s="1">
@@ -10482,24 +10482,24 @@
         <v>-84.224577320255051</v>
       </c>
       <c r="U31" s="1">
+        <f t="shared" si="10"/>
+        <v>-83.86302712428926</v>
+      </c>
+      <c r="V31" s="1">
         <f t="shared" si="1"/>
-        <v>-83.86302712428926</v>
-      </c>
-      <c r="V31" s="1">
+        <v>-84.754315431802056</v>
+      </c>
+      <c r="W31" s="1">
         <f t="shared" si="2"/>
-        <v>-84.754315431802056</v>
-      </c>
-      <c r="W31" s="1">
-        <f t="shared" si="3"/>
         <v>-84.570975568158588</v>
       </c>
       <c r="X31" s="1"/>
       <c r="Y31" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6489464249861738</v>
+      </c>
+      <c r="Z31" s="1">
         <f t="shared" si="4"/>
-        <v>5.6489464249861738</v>
-      </c>
-      <c r="Z31" s="1">
-        <f t="shared" si="5"/>
         <v>3.4708700658375116</v>
       </c>
       <c r="AA31" s="1">
@@ -10507,12 +10507,12 @@
         <v>8.4476803117007346</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.6099153720683717</v>
       </c>
       <c r="AC31" s="1"/>
       <c r="AE31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33.218165746952501</v>
       </c>
       <c r="AF31" s="1">
@@ -10520,7 +10520,7 @@
         <v>11.470204416438566</v>
       </c>
       <c r="AG31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>30.609233526154185</v>
       </c>
       <c r="AH31" s="1">
@@ -10528,7 +10528,7 @@
         <v>13.465480395419943</v>
       </c>
       <c r="AI31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>39.605100886848071</v>
       </c>
       <c r="AJ31" s="1">
@@ -10536,7 +10536,7 @@
         <v>11.470204416438566</v>
       </c>
       <c r="AK31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38.943960721715392</v>
       </c>
       <c r="AL31" s="1">
@@ -10587,24 +10587,24 @@
         <v>-84.469915767863597</v>
       </c>
       <c r="U32" s="1">
+        <f t="shared" si="10"/>
+        <v>-84.103956036121446</v>
+      </c>
+      <c r="V32" s="1">
         <f t="shared" si="1"/>
-        <v>-84.103956036121446</v>
-      </c>
-      <c r="V32" s="1">
+        <v>-84.983031545993271</v>
+      </c>
+      <c r="W32" s="1">
         <f t="shared" si="2"/>
-        <v>-84.983031545993271</v>
-      </c>
-      <c r="W32" s="1">
-        <f t="shared" si="3"/>
         <v>-84.797800564852921</v>
       </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="1">
+        <f t="shared" si="3"/>
+        <v>11.942769703270415</v>
+      </c>
+      <c r="Z32" s="1">
         <f t="shared" si="4"/>
-        <v>11.942769703270415</v>
-      </c>
-      <c r="Z32" s="1">
-        <f t="shared" si="5"/>
         <v>9.634543074174756</v>
       </c>
       <c r="AA32" s="1">
@@ -10612,12 +10612,12 @@
         <v>15.752540597998481</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.423289130397162</v>
       </c>
       <c r="AC32" s="1"/>
       <c r="AE32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>36.106382925802038</v>
       </c>
       <c r="AF32" s="1">
@@ -10625,7 +10625,7 @@
         <v>6.5179491261182534</v>
       </c>
       <c r="AG32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>33.333188169944023</v>
       </c>
       <c r="AH32" s="1">
@@ -10633,7 +10633,7 @@
         <v>7.1264122269342627</v>
       </c>
       <c r="AI32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>42.536151146815627</v>
       </c>
       <c r="AJ32" s="1">
@@ -10641,7 +10641,7 @@
         <v>6.5179491261182534</v>
       </c>
       <c r="AK32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>41.826417463394591</v>
       </c>
       <c r="AL32" s="1">
@@ -10689,24 +10689,24 @@
         <v>-84.706644049920612</v>
       </c>
       <c r="U33" s="1">
+        <f t="shared" si="10"/>
+        <v>-84.336429535289028</v>
+      </c>
+      <c r="V33" s="1">
         <f t="shared" si="1"/>
-        <v>-84.336429535289028</v>
-      </c>
-      <c r="V33" s="1">
+        <v>-85.203720856286921</v>
+      </c>
+      <c r="W33" s="1">
         <f t="shared" si="2"/>
-        <v>-85.203720856286921</v>
-      </c>
-      <c r="W33" s="1">
-        <f t="shared" si="3"/>
         <v>-85.016665126516386</v>
       </c>
       <c r="X33" s="1"/>
       <c r="Y33" s="1">
+        <f t="shared" si="3"/>
+        <v>20.216304536000095</v>
+      </c>
+      <c r="Z33" s="1">
         <f t="shared" si="4"/>
-        <v>20.216304536000095</v>
-      </c>
-      <c r="Z33" s="1">
-        <f t="shared" si="5"/>
         <v>22.461230275171463</v>
       </c>
       <c r="AA33" s="1">
@@ -10714,12 +10714,12 @@
         <v>15.993422231687852</v>
       </c>
       <c r="AB33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.476231511486855</v>
       </c>
       <c r="AC33" s="1"/>
       <c r="AE33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>39.007356801616147</v>
       </c>
       <c r="AF33" s="1">
@@ -10727,7 +10727,7 @@
         <v>115.38715853093164</v>
       </c>
       <c r="AG33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>36.071598999140349</v>
       </c>
       <c r="AH33" s="1">
@@ -10735,7 +10735,7 @@
         <v>115.46129285847455</v>
       </c>
       <c r="AI33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>45.463515018964287</v>
       </c>
       <c r="AJ33" s="1">
@@ -10743,7 +10743,7 @@
         <v>115.38715853093164</v>
       </c>
       <c r="AK33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>44.705259885957311</v>
       </c>
       <c r="AL33" s="1">

--- a/Praca Inżynierska/dane/excel/moc-4stat.xlsx
+++ b/Praca Inżynierska/dane/excel/moc-4stat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="moc-4stat" sheetId="1" r:id="rId1"/>
@@ -1024,11 +1024,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="422739424"/>
-        <c:axId val="425883864"/>
+        <c:axId val="382383880"/>
+        <c:axId val="382382704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="422739424"/>
+        <c:axId val="382383880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1071,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425883864"/>
+        <c:crossAx val="382382704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1079,7 +1079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425883864"/>
+        <c:axId val="382382704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1130,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422739424"/>
+        <c:crossAx val="382383880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1470,11 +1470,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="425883080"/>
-        <c:axId val="240877240"/>
+        <c:axId val="382932624"/>
+        <c:axId val="382929096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="425883080"/>
+        <c:axId val="382932624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1517,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240877240"/>
+        <c:crossAx val="382929096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1525,7 +1525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240877240"/>
+        <c:axId val="382929096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1576,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425883080"/>
+        <c:crossAx val="382932624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2799,11 +2799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="445552656"/>
-        <c:axId val="445553048"/>
+        <c:axId val="377561376"/>
+        <c:axId val="377559416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="445552656"/>
+        <c:axId val="377561376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -2918,12 +2918,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445553048"/>
+        <c:crossAx val="377559416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="445553048"/>
+        <c:axId val="377559416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -3037,7 +3037,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445552656"/>
+        <c:crossAx val="377561376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3344,11 +3344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="445553832"/>
-        <c:axId val="445554224"/>
+        <c:axId val="383714856"/>
+        <c:axId val="428319664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="445553832"/>
+        <c:axId val="383714856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -3463,12 +3463,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445554224"/>
+        <c:crossAx val="428319664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="445554224"/>
+        <c:axId val="428319664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -3582,7 +3582,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445553832"/>
+        <c:crossAx val="383714856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3853,11 +3853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="445498048"/>
-        <c:axId val="445498440"/>
+        <c:axId val="385917136"/>
+        <c:axId val="385917528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="445498048"/>
+        <c:axId val="385917136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -3972,12 +3972,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445498440"/>
+        <c:crossAx val="385917528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="445498440"/>
+        <c:axId val="385917528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -4091,7 +4091,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445498048"/>
+        <c:crossAx val="385917136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7352,8 +7352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7649,7 +7649,7 @@
         <v>-61.990651568085873</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" ref="U3:U33" si="10">-(10*$N$34*LOG10($E3)-$H$2)</f>
+        <f t="shared" ref="U4:U33" si="10">-(10*$N$34*LOG10($E3)-$H$2)</f>
         <v>-62.028717869284748</v>
       </c>
       <c r="V4" s="1">
@@ -7966,7 +7966,7 @@
         <v>-69.306820954286252</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="1"/>
+        <f>-(10*$O$34*LOG10($E6)-$I$2)</f>
         <v>-70.935970064898839</v>
       </c>
       <c r="W7" s="1">
@@ -8159,7 +8159,7 @@
         <v>3.3295445874895395</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="17"/>
+        <f>-(F9-$H$2)/(10*LOG10(E9))</f>
         <v>3.4599889314492493</v>
       </c>
       <c r="O9" s="1"/>
